--- a/data_input/analytics/Agents GPU planes.xlsx
+++ b/data_input/analytics/Agents GPU planes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B0F286-5E4B-416C-AE66-36ED8A4E91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агенты" sheetId="4" r:id="rId1"/>
@@ -247,9 +248,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -643,16 +644,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,22 +674,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -805,8 +806,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -897,6 +898,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -932,6 +950,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1107,44 +1142,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.453125" style="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -1184,7 +1219,7 @@
       <c r="U1" s="66"/>
       <c r="V1" s="67"/>
     </row>
-    <row r="2" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1257,7 @@
       <c r="U2" s="69"/>
       <c r="V2" s="70"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -1290,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>45</v>
       </c>
@@ -1356,7 +1391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>40</v>
       </c>
@@ -1420,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +1493,7 @@
       <c r="U6" s="15"/>
       <c r="V6" s="37"/>
     </row>
-    <row r="7" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1547,7 @@
       <c r="U7" s="16"/>
       <c r="V7" s="38"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1545,14 +1580,12 @@
       <c r="R8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="39" t="s">
-        <v>48</v>
-      </c>
+      <c r="S8" s="39"/>
       <c r="T8" s="30"/>
       <c r="U8" s="21"/>
       <c r="V8" s="31"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1623,12 +1656,14 @@
       <c r="R10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="40"/>
+      <c r="S10" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="T10" s="30"/>
       <c r="U10" s="21"/>
       <c r="V10" s="31"/>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1658,26 +1693,26 @@
       <c r="U11" s="34"/>
       <c r="V11" s="35"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="53"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
     </row>
